--- a/formatos_hoja_de_calculo/esquema_menu_perfiles.xlsx
+++ b/formatos_hoja_de_calculo/esquema_menu_perfiles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\registro_academico\formatos_hoja_de_calculo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF5B86E-CA81-4456-9016-D2E8BBFAAE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5382255-AB50-483C-9093-63A6E367060F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="630" windowWidth="28770" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -612,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,6 +1053,9 @@
       <c r="C38" t="s">
         <v>66</v>
       </c>
+      <c r="D38" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">

--- a/formatos_hoja_de_calculo/esquema_menu_perfiles.xlsx
+++ b/formatos_hoja_de_calculo/esquema_menu_perfiles.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\registro_academico\formatos_hoja_de_calculo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5382255-AB50-483C-9093-63A6E367060F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDBA2D0-938F-4642-8A21-EA32BA66CBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="73">
   <si>
     <t>Perfil</t>
   </si>
@@ -236,13 +248,16 @@
   </si>
   <si>
     <t>reporte.php</t>
+  </si>
+  <si>
+    <t>4093058@clases.edu.sv     ZlRmai74dc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +272,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -297,17 +327,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1198,4 +1231,26 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5225AD45-B229-4095-88CD-5B3A7E30D797}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="mailto:4093058@clases.edu.sv" xr:uid="{88B502E9-1CED-489D-8630-E4ECE3C51BD8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+</worksheet>
 </file>
--- a/formatos_hoja_de_calculo/esquema_menu_perfiles.xlsx
+++ b/formatos_hoja_de_calculo/esquema_menu_perfiles.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\registro_academico\formatos_hoja_de_calculo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDBA2D0-938F-4642-8A21-EA32BA66CBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D33F44C-8E83-4C6E-BCE3-3CDE7BE84760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="82">
   <si>
     <t>Perfil</t>
   </si>
@@ -251,6 +251,33 @@
   </si>
   <si>
     <t>4093058@clases.edu.sv     ZlRmai74dc</t>
+  </si>
+  <si>
+    <t>cambio</t>
+  </si>
+  <si>
+    <t>DatosEncargados.php</t>
+  </si>
+  <si>
+    <t>Datos Encargados</t>
+  </si>
+  <si>
+    <t>DatosEncargados.html</t>
+  </si>
+  <si>
+    <t>DatosEncargados.js</t>
+  </si>
+  <si>
+    <t>Datos Estudiantes</t>
+  </si>
+  <si>
+    <t>DatosEstudiantes.php</t>
+  </si>
+  <si>
+    <t>DatosEstudiantes.html</t>
+  </si>
+  <si>
+    <t>DatosEstudiantes.js</t>
   </si>
 </sst>
 </file>
@@ -643,16 +670,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="40.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -831,7 +864,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -842,7 +875,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -854,7 +887,7 @@
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -865,7 +898,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -876,7 +909,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -887,7 +920,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -898,7 +931,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -908,8 +941,20 @@
       <c r="C23" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -919,8 +964,23 @@
       <c r="C24" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -931,7 +991,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -943,7 +1003,7 @@
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -955,7 +1015,7 @@
       </c>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -967,7 +1027,7 @@
       </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -979,7 +1039,7 @@
       </c>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -990,7 +1050,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1001,7 +1061,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>

--- a/formatos_hoja_de_calculo/esquema_menu_perfiles.xlsx
+++ b/formatos_hoja_de_calculo/esquema_menu_perfiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\registro_academico\formatos_hoja_de_calculo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D33F44C-8E83-4C6E-BCE3-3CDE7BE84760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E92D8E5-1369-4CED-9F5B-456AA9576DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -672,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,7 +688,7 @@
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -699,7 +699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -710,7 +710,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -720,8 +720,9 @@
       <c r="C3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -732,7 +733,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -743,7 +744,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -754,7 +755,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -764,8 +765,9 @@
       <c r="C7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -775,8 +777,9 @@
       <c r="C8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -786,8 +789,9 @@
       <c r="C9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -797,8 +801,9 @@
       <c r="C10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -809,7 +814,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -819,8 +824,9 @@
       <c r="C12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -830,8 +836,9 @@
       <c r="C13" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -841,8 +848,9 @@
       <c r="C14" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -852,8 +860,9 @@
       <c r="C15" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -863,6 +872,7 @@
       <c r="C16" t="s">
         <v>53</v>
       </c>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -874,6 +884,7 @@
       <c r="C17" t="s">
         <v>39</v>
       </c>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -897,6 +908,7 @@
       <c r="C19" t="s">
         <v>41</v>
       </c>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -908,6 +920,7 @@
       <c r="C20" t="s">
         <v>54</v>
       </c>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -919,6 +932,7 @@
       <c r="C21" t="s">
         <v>55</v>
       </c>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -941,6 +955,7 @@
       <c r="C23" t="s">
         <v>57</v>
       </c>
+      <c r="D23" s="2"/>
       <c r="F23" t="s">
         <v>78</v>
       </c>
@@ -964,6 +979,7 @@
       <c r="C24" t="s">
         <v>58</v>
       </c>
+      <c r="D24" s="2"/>
       <c r="E24" t="s">
         <v>73</v>
       </c>
@@ -1060,6 +1076,7 @@
       <c r="C31" t="s">
         <v>60</v>
       </c>
+      <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -1160,6 +1177,7 @@
       <c r="C39" t="s">
         <v>47</v>
       </c>
+      <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -1210,6 +1228,7 @@
       <c r="C43" t="s">
         <v>50</v>
       </c>
+      <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -1232,6 +1251,7 @@
       <c r="C45" t="s">
         <v>68</v>
       </c>
+      <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -1265,8 +1285,9 @@
       <c r="C48" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -1277,7 +1298,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -1287,6 +1308,7 @@
       <c r="C50" t="s">
         <v>53</v>
       </c>
+      <c r="D50" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
